--- a/excel/dept_clustering.xlsx
+++ b/excel/dept_clustering.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,11 +506,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Milan Bankovic</t>
+          <t>Jelena Graovac</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -521,7 +521,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jelena Graovac</t>
+          <t>Aleksandar Kartelj</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -536,11 +536,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aleksandar Kartelj</t>
+          <t>Jovana Kovacevic</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -551,11 +551,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jovana Kovacevic</t>
+          <t>Vesna Marinkovic</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -566,11 +566,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Vesna Marinkovic</t>
+          <t>Mladen Nikolic</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -581,11 +581,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Mladen Nikolic</t>
+          <t>Milena Vujosevic Janicic</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -596,11 +596,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Milena Vujosevic Janicic</t>
+          <t>Stasa Vujicic Stankovic</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -611,7 +611,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sana Stojanovic Djurdjevic</t>
+          <t>Nina Radojicic</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -626,11 +626,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Stasa Vujicic Stankovic</t>
+          <t>Mirko Spasic</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -641,7 +641,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Stefan Miskovic</t>
+          <t>Ivana Tanasijevic</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -656,97 +656,97 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Danijela Simic</t>
+          <t>Bosko Nikolic</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.6432748538011696</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jelena Hadzi Puric</t>
+          <t>Dragan Milicev</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ivan Cukic</t>
+          <t>Zoran Jovanovic</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ognjen Kocic</t>
+          <t>Jelica Protic</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.8161764705882353</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Mirjana Maljkovic</t>
+          <t>Milo Tomasevic</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.8161764705882353</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nina Radojicic</t>
+          <t>Miroslav Bojovic</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aleksandra Kocic</t>
+          <t>Sanja Vranes</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -754,194 +754,194 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Ana Spasic</t>
+          <t>Dragan Bojic</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mirko Spasic</t>
+          <t>Zaharije Radivojevic</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Biljana Stojanovic</t>
+          <t>Igor Tartalja</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ivana Tanasijevic</t>
+          <t>Milos Cvetanovic</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Andjelka Zecevic</t>
+          <t>Djordje Djurdjevic</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aleksandar Veljkovic</t>
+          <t>Zarko Stanisavljevic</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.6549707602339181</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Vladimir Kuzmanovic</t>
+          <t>Marija Punt</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Marjana Solajic</t>
+          <t>Marko Misic</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Anja Bukurov</t>
+          <t>Pavle Vuletic</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nemanja Micovic</t>
+          <t>Sasa Stojanovic</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>0.6432748538011696</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Nikola Milev</t>
+          <t>Slavko Gajin</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Marinela Parovic</t>
+          <t>Drazen Draskovic</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Milica Selakovic</t>
+          <t>Zivojin Sustran</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -949,14 +949,14 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Nikola Simic</t>
+          <t>Katarina Milenkovic</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -964,18 +964,18 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>MATF_RTI</t>
+          <t>ETF_RTI</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Bosko Nikolic</t>
+          <t>Maja Vukasovic</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.6432748538011696</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -986,11 +986,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Dragan Milicev</t>
+          <t>Sanja Delcev</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.7941176470588235</v>
+        <v>1</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1001,11 +1001,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Zoran Jovanovic</t>
+          <t>Nemanja Kojic</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1016,11 +1016,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Jelica Protic</t>
+          <t>Nenad Korolija</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.8161764705882353</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1031,202 +1031,202 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Milo Tomasevic</t>
+          <t>Nenad Anicic</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.8161764705882353</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Miroslav Bojovic</t>
+          <t>Sinisa Vlajic</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sanja Vranes</t>
+          <t>Vladan Devedzic</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Dragan Bojic</t>
+          <t>Dragan Djuric</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.9166666666666666</v>
+        <v>1</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Zaharije Radivojevic</t>
+          <t>Jelena Jovanovic</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Igor Tartalja</t>
+          <t>Zoran Marjanovic</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.9</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Milos Cvetanovic</t>
+          <t>Dejan Simic</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Djordje Djurdjevic</t>
+          <t>Dusan Starcevic</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Zarko Stanisavljevic</t>
+          <t>Sladjan Babarogic</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.6549707602339181</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Marija Punt</t>
+          <t>Milica Vuckovic</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Marko Misic</t>
+          <t>Sasa Lazarevic</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.5333333333333333</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Pavle Vuletic</t>
+          <t>Vidan Markovic</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sasa Stojanovic</t>
+          <t>Miroslav Minovic</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.6432748538011696</v>
+        <v>0.8</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Slavko Gajin</t>
+          <t>Sinisa Neskovic</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1234,149 +1234,149 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Drazen Draskovic</t>
+          <t>Ilija Antovic</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.4666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Zivojin Sustran</t>
+          <t>Milos Milic</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Katarina Milenkovic</t>
+          <t>Milos Milovanovic</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Maja Vukasovic</t>
+          <t>Ognjen Pantelic</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.8333333333333334</v>
+        <v>0</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Milana Prodanov</t>
+          <t>Marko Petrovic</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sanja Delcev</t>
+          <t>Dusan Savic</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Stefan Tubic</t>
+          <t>Bojan Tomic</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Filip Hadzic</t>
+          <t>Nina Turajlic</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Vladimir Jocovic</t>
+          <t>Zoran Sevarac</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Danko Miladinovic</t>
+          <t>Srdja Bjeladinovic</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -1384,44 +1384,44 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Dragana Milovancevic</t>
+          <t>Ivan Milenkovic</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Jelica Cincovic</t>
+          <t>Nikola Milikic</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Jovan Djukic</t>
+          <t>Ana Pajic</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1429,712 +1429,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Kristijan Ziza</t>
+          <t>Uros Sosevic</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Marko Micovic</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Tamara Sekularac</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0</v>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Uros Radenkovic</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0</v>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Aleksandar Lazic</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0</v>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Dragisa Miladinovic</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Nemanja Kojic</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0</v>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Nenad Korolija</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>1</v>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ETF_RTI</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Nenad Anicic</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Sinisa Vlajic</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Vladan Devedzic</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Dragan Djuric</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>1</v>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Jelena Jovanovic</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Zoran Marjanovic</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Dejan Simic</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.4666666666666667</v>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
           <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Dusan Starcevic</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Sladjan Babarogic</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.6190476190476191</v>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Milica Vuckovic</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Sasa Lazarevic</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>1</v>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Vidan Markovic</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0</v>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Miroslav Minovic</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>Sinisa Neskovic</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>1</v>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Ilija Antovic</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>1</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Marina Jovanovic Milenkovic</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Milos Milic</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>1</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Milos Milovanovic</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Ognjen Pantelic</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0</v>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Marko Petrovic</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Dusan Savic</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Bojan Tomic</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>1</v>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Nina Turajlic</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.8666666666666667</v>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Zoran Sevarac</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>1</v>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Srdja Bjeladinovic</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>0</v>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Marija Bogicevic Sretenovic</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>0</v>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Ivan Milenkovic</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Nikola Milikic</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>1</v>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>Elena Milovanovic</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>0</v>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Ana Pajic</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>0</v>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Dejan Stojimirovic</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Uros Sosevic</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>1</v>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Milos Zlatkovic</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Jelena Ljubenovic</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>0</v>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Mina Marjanovic</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>Bojan Marceta</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>0</v>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Andela Pejanovic</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Sofija Prokic</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>0</v>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Tatjana Stojanovic</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>0</v>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
         </is>
       </c>
     </row>
